--- a/src/server/db/scripts/Songs.xlsx
+++ b/src/server/db/scripts/Songs.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/callumgibson/song-list/src/server/models/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/callumgibson/song-list/src/server/db/scripts/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="1560" windowWidth="25600" windowHeight="15540" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="data.csv" sheetId="1" r:id="rId1"/>
@@ -24,11 +24,14 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="211" uniqueCount="128">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="714" uniqueCount="463">
   <si>
     <t>All My Ways Are Known To You</t>
   </si>
   <si>
+    <t>CityAlight</t>
+  </si>
+  <si>
     <t>Almighty</t>
   </si>
   <si>
@@ -98,10 +101,6 @@
     <t>I am they</t>
   </si>
   <si>
-    <t>7023274 (lyrics)
-PraiseCharts (paid sheets)</t>
-  </si>
-  <si>
     <t>Have It All</t>
   </si>
   <si>
@@ -111,9 +110,6 @@
     <t>Home</t>
   </si>
   <si>
-    <t>City Alight</t>
-  </si>
-  <si>
     <t>Joy of the Lord</t>
   </si>
   <si>
@@ -132,9 +128,6 @@
     <t>Nailed to the Cross</t>
   </si>
   <si>
-    <t>No Other Name (Hodge)</t>
-  </si>
-  <si>
     <t>Trevor Hodge</t>
   </si>
   <si>
@@ -150,9 +143,6 @@
     <t>Only a Holy God</t>
   </si>
   <si>
-    <t>Rescuer (Good news)</t>
-  </si>
-  <si>
     <t>Saved My Soul</t>
   </si>
   <si>
@@ -378,18 +368,6 @@
     <t>Tempo 120 if driving</t>
   </si>
   <si>
-    <t>Greg Cooper$$$Nicky Chiswell</t>
-  </si>
-  <si>
-    <t>Passion$$$Chris Tomlin</t>
-  </si>
-  <si>
-    <t>Bethel$$$Jeremy Riddle</t>
-  </si>
-  <si>
-    <t>Sovereign Grace$$$Sczebel &amp; Bischof</t>
-  </si>
-  <si>
     <t>Opening Placement&amp;&amp;&amp;End Placement&amp;&amp;&amp;Category A</t>
   </si>
   <si>
@@ -409,13 +387,1040 @@
   </si>
   <si>
     <t>Opening Placement&amp;&amp;&amp;Reflective&amp;&amp;&amp;Category A</t>
+  </si>
+  <si>
+    <t xml:space="preserve">7023274
+</t>
+  </si>
+  <si>
+    <t>No Other Name</t>
+  </si>
+  <si>
+    <t>Rescuer</t>
+  </si>
+  <si>
+    <t>And Can It Be</t>
+  </si>
+  <si>
+    <t>Charles Wesley</t>
+  </si>
+  <si>
+    <t>F</t>
+  </si>
+  <si>
+    <t>At the name of Jesus</t>
+  </si>
+  <si>
+    <t>Brierley</t>
+  </si>
+  <si>
+    <t>At This Table We Remember</t>
+  </si>
+  <si>
+    <t>Be Thou My Vision</t>
+  </si>
+  <si>
+    <t>Before the throne of God Above</t>
+  </si>
+  <si>
+    <t>Blessed Assurance</t>
+  </si>
+  <si>
+    <t>Christ is Mine Forevermore</t>
+  </si>
+  <si>
+    <t>Crown Him with many crowns</t>
+  </si>
+  <si>
+    <t>George Elvey</t>
+  </si>
+  <si>
+    <t>Crowns</t>
+  </si>
+  <si>
+    <t>God Has Spoken By His Prophets</t>
+  </si>
+  <si>
+    <t>Great is thy faithfulness</t>
+  </si>
+  <si>
+    <t>Here is Love</t>
+  </si>
+  <si>
+    <t>Robert S. Lowry</t>
+  </si>
+  <si>
+    <t>How Deep the Father's Love</t>
+  </si>
+  <si>
+    <t>Stuart Townend</t>
+  </si>
+  <si>
+    <t>How Firm a Foundation</t>
+  </si>
+  <si>
+    <t>Anonymous</t>
+  </si>
+  <si>
+    <t>I Cannot Tell</t>
+  </si>
+  <si>
+    <t>Traditional (Londonderry Air tune)</t>
+  </si>
+  <si>
+    <t>I Heard the Voice of Jesus Say</t>
+  </si>
+  <si>
+    <t>G/Em</t>
+  </si>
+  <si>
+    <t>I Surrender All</t>
+  </si>
+  <si>
+    <t>Winfield Scott Weeden</t>
+  </si>
+  <si>
+    <t>I will sing the wondrous story</t>
+  </si>
+  <si>
+    <t>In Christ Alone</t>
+  </si>
+  <si>
+    <t>It is well with my soul</t>
+  </si>
+  <si>
+    <t>Jerusalem</t>
+  </si>
+  <si>
+    <t>Jesus Paid It All</t>
+  </si>
+  <si>
+    <t>King of Love</t>
+  </si>
+  <si>
+    <t>Emu Youth</t>
+  </si>
+  <si>
+    <t>May The Mind Of Christ My Saviour (hymn)</t>
+  </si>
+  <si>
+    <t>My hope is built</t>
+  </si>
+  <si>
+    <t>O Great God</t>
+  </si>
+  <si>
+    <t>Rock of Ages (hymn)</t>
+  </si>
+  <si>
+    <t>Speak O Lord</t>
+  </si>
+  <si>
+    <t>The Power of the Cross</t>
+  </si>
+  <si>
+    <t>This Is My Father's World</t>
+  </si>
+  <si>
+    <t>To God Be The Glory</t>
+  </si>
+  <si>
+    <t>What a Friend We Have In Jesus</t>
+  </si>
+  <si>
+    <t>When I Survey the Wondrous Cross</t>
+  </si>
+  <si>
+    <t>O Lord my rock and my redeemer</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Eb </t>
+  </si>
+  <si>
+    <t>3rd verse key change to D</t>
+  </si>
+  <si>
+    <t>John Newton</t>
+  </si>
+  <si>
+    <t>Fanny J. Crosby</t>
+  </si>
+  <si>
+    <t>Thomas O. Chisholm</t>
+  </si>
+  <si>
+    <t>Reginald Heber</t>
+  </si>
+  <si>
+    <t>Horatius Bonar</t>
+  </si>
+  <si>
+    <t>Pritchard Rawley</t>
+  </si>
+  <si>
+    <t>Horatio G. Spafford</t>
+  </si>
+  <si>
+    <t>Joseph Scriven</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=sQeIGbKqiw8</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=r4d4UXSJXig</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Sj5y-4Ed2Xc</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=IQxHvBtR7hs</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=GAwnheLra90&amp;feature=fvst</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=_5E1gWdW3P8&amp;feature=fvst</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=roQovDZeAWE</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=qdK4lzg8gsU</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8fyPQsizgmk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zOpt_bulJxY</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=dA9c4EbNu6o</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=0k1WhFtVp0o</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RRXFRRxFlyI</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=6iK0Miq2xNo</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=YV2zMZ-nZ7k</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=o6YH2f7UAew</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=62wk5KvI7-w</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=7RGgS4kyGWI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XR32kHGbrkE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zs4nXPOR52w</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=qLy8ksqGf9w</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AHe_qmo3gX4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wX4ZCHRksBA&amp;index=3&amp;list=RDWpArxl4czE8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=j_jAbHkGJRE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Zs8sjuS0YzA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dRTLocMzTvs</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=z6tFzOYFZ30</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mZut2iA57y8</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=gM7gt_cSxjw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=my90e3a_nlM</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=HU9Pi4g_3No</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=ubGCISQQ7Zo</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=byIpfEVxhs4</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=2CeBoSQsBR0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7Pv1dUNJVJ4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4_fvFfPqjO4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=TpELMk4-3n8</t>
+  </si>
+  <si>
+    <t>Facing a task unfinished</t>
+  </si>
+  <si>
+    <t>Song has new bridge</t>
+  </si>
+  <si>
+    <t>Reflective&amp;&amp;&amp;End Placement&amp;&amp;&amp;Category B (Hymn)</t>
+  </si>
+  <si>
+    <t>Category B (Hymn)</t>
+  </si>
+  <si>
+    <t>Opening Placement&amp;&amp;&amp;End Placement&amp;&amp;&amp;Category B (Hymn)</t>
+  </si>
+  <si>
+    <t>End Placement&amp;&amp;&amp;Category B (Hymn)</t>
+  </si>
+  <si>
+    <t>Reflective&amp;&amp;&amp;Category B (Hymn)</t>
+  </si>
+  <si>
+    <t>Any Placement&amp;&amp;&amp;Category B (Hymn)</t>
+  </si>
+  <si>
+    <t>Opening Placement&amp;&amp;&amp;Reflective&amp;&amp;&amp;Category B (Hymn)</t>
+  </si>
+  <si>
+    <t>Opening Placement&amp;&amp;&amp;Reflective&amp;&amp;&amp;End Placement&amp;&amp;&amp;Category B (Hymn)</t>
+  </si>
+  <si>
+    <t>Amazing Grace (My Chains Are Gone)</t>
+  </si>
+  <si>
+    <t>Blessed Be Your Name</t>
+  </si>
+  <si>
+    <t>Matt &amp; Beth Redman</t>
+  </si>
+  <si>
+    <t>Christmas Carol</t>
+  </si>
+  <si>
+    <t>Completely Done</t>
+  </si>
+  <si>
+    <t>Cornerstone</t>
+  </si>
+  <si>
+    <t>Everlasting God</t>
+  </si>
+  <si>
+    <t>From Heaven You Came (The Servant King)</t>
+  </si>
+  <si>
+    <t>Cm</t>
+  </si>
+  <si>
+    <t>Grace Alone</t>
+  </si>
+  <si>
+    <t>Dustin Kensrue</t>
+  </si>
+  <si>
+    <t>Great are You Lord</t>
+  </si>
+  <si>
+    <t>Here I Am To Worship</t>
+  </si>
+  <si>
+    <t>How Great is Our God</t>
+  </si>
+  <si>
+    <t>I Am Not Ashamed</t>
+  </si>
+  <si>
+    <t>Michael Morrow</t>
+  </si>
+  <si>
+    <t>E/C#m</t>
+  </si>
+  <si>
+    <t>I Come By The Blood</t>
+  </si>
+  <si>
+    <t>Immanuel</t>
+  </si>
+  <si>
+    <t>Indescribable</t>
+  </si>
+  <si>
+    <t>Jesus!</t>
+  </si>
+  <si>
+    <t>Citizens</t>
+  </si>
+  <si>
+    <t>Lyrics only</t>
+  </si>
+  <si>
+    <t>Let your kingdom come</t>
+  </si>
+  <si>
+    <t>Made Alive</t>
+  </si>
+  <si>
+    <t>May The Words Of My Mouth</t>
+  </si>
+  <si>
+    <t>O Come And See</t>
+  </si>
+  <si>
+    <t>Perfect Lamb of God</t>
+  </si>
+  <si>
+    <t>Am</t>
+  </si>
+  <si>
+    <t>Rejoice!</t>
+  </si>
+  <si>
+    <t>Rejoice With Trembling</t>
+  </si>
+  <si>
+    <t>Gm/F</t>
+  </si>
+  <si>
+    <t>Sweetly Broken</t>
+  </si>
+  <si>
+    <t>The Father's Love</t>
+  </si>
+  <si>
+    <t>The Wonder Of The Cross</t>
+  </si>
+  <si>
+    <t>Vicky Beeching</t>
+  </si>
+  <si>
+    <t>Ab</t>
+  </si>
+  <si>
+    <t>We Belong to the Day</t>
+  </si>
+  <si>
+    <t>C#m</t>
+  </si>
+  <si>
+    <t>Worthy Is The Lamb</t>
+  </si>
+  <si>
+    <t>Darlene Zschech</t>
+  </si>
+  <si>
+    <t>You Are My King</t>
+  </si>
+  <si>
+    <t>Billy James Foote</t>
+  </si>
+  <si>
+    <t>You have won me</t>
+  </si>
+  <si>
+    <t>Bethel Music</t>
+  </si>
+  <si>
+    <t>Your Love, O Lord</t>
+  </si>
+  <si>
+    <t>A Mighty Fortress Is Our God</t>
+  </si>
+  <si>
+    <t>Martin Luther</t>
+  </si>
+  <si>
+    <t>A Wonderful Saviour Is Jesus My Lord</t>
+  </si>
+  <si>
+    <t>Christ The Lord Is Risen Today</t>
+  </si>
+  <si>
+    <t>God My King, Thy Might Confessing</t>
+  </si>
+  <si>
+    <t>How Great Thou Art</t>
+  </si>
+  <si>
+    <t>How Sweet the Name of Jesus Sounds</t>
+  </si>
+  <si>
+    <t>I Greet Thee, Who My Sure Redeemer Art</t>
+  </si>
+  <si>
+    <t>I Know Whom I Have Believed</t>
+  </si>
+  <si>
+    <t>Immortal Invisible</t>
+  </si>
+  <si>
+    <t>Jesus! What A Friend For Sinners!</t>
+  </si>
+  <si>
+    <t>Jesus, Keep Me Near The Cross</t>
+  </si>
+  <si>
+    <t>Let Us Love and Sing and Wonder</t>
+  </si>
+  <si>
+    <t>Lord, Speak to Me</t>
+  </si>
+  <si>
+    <t>Dm/F</t>
+  </si>
+  <si>
+    <t>Love Divine</t>
+  </si>
+  <si>
+    <t>Man Of Sorrows</t>
+  </si>
+  <si>
+    <t>My Faith Has Found a Resting Place</t>
+  </si>
+  <si>
+    <t>My Faith Looks Up To Thee</t>
+  </si>
+  <si>
+    <t>My Jesus, I Love Thee</t>
+  </si>
+  <si>
+    <t>O Come My Soul, Bless Thou The Lord Thy Maker</t>
+  </si>
+  <si>
+    <t>O For A Thousand (Lyngham)</t>
+  </si>
+  <si>
+    <t>O Sacred Head Sore Wounded</t>
+  </si>
+  <si>
+    <t>O Worship the King</t>
+  </si>
+  <si>
+    <t>One There Is Above All Others</t>
+  </si>
+  <si>
+    <t>Praise To The Lord</t>
+  </si>
+  <si>
+    <t>Praise, My Soul, The King Of Heaven</t>
+  </si>
+  <si>
+    <t>Rejoice The Lord Is King</t>
+  </si>
+  <si>
+    <t>Tell Out, My Soul</t>
+  </si>
+  <si>
+    <t>The Church's One Foundation</t>
+  </si>
+  <si>
+    <t>The Lord's My Shepherd</t>
+  </si>
+  <si>
+    <t>Thine Be The Glory</t>
+  </si>
+  <si>
+    <t>We Come, O Christ To You</t>
+  </si>
+  <si>
+    <t>The Old Rugged Cross</t>
+  </si>
+  <si>
+    <t>Guide me O thou great Jehovah</t>
+  </si>
+  <si>
+    <t>Solid Rock</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DXDGE_lRI0E</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=Jbe7OruLk8I</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=7Qp11X6LKYY</t>
+  </si>
+  <si>
+    <t>http://store.emumusic.com.au/index.php?page=shop.product_details&amp;flypage=flypage.tpl&amp;product_id=273&amp;category_id=2&amp;option=com_virtuemart&amp;Itemid=1&amp;vmcchk=1&amp;Itemid=1</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=cwoqzVXwUjs</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QvLxZEU02uI</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=PGPTK24hQxc</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=iQ2uGr6r4BQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kKTN5yVtgIE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Tf4ChlYjiQM</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=86v2ZEsEKW8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cKLQ1td3MbE</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tiPgFWoXY_s</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=qIHW5POUT4M</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=80n62xs981s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5IlVfkY5q54</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=5s75VfUe6lg</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=zkKCb6Bmi6o</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9dhh6F38kDE</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=B3slST5bM0Y</t>
+  </si>
+  <si>
+    <t>http://store.emumusic.com.au/index.php?page=shop.product_details&amp;flypage=flypage.tpl&amp;product_id=241&amp;category_id=2&amp;option=com_virtuemart&amp;Itemid=15</t>
+  </si>
+  <si>
+    <t>http://www.sovereigngracestore.com/ProductInfo.aspx?productid=M4130-10-51</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_7Qy1iXZU2g</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=O5_Z3ZZYLDc</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nMC0zY21v2U</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=ZLSwigbVW6g</t>
+  </si>
+  <si>
+    <t>http://store.emumusic.com.au/index.php?page=shop.product_details&amp;flypage=flypage.tpl&amp;product_id=424&amp;category_id=2&amp;option=com_virtuemart&amp;Itemid=15</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=0ukKlS4EBzI</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=hNousF-YMHo</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3dX2baT9Ku4</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=ZTXP3bSnad0</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=-Y-_TsRjm5Y&amp;feature=related</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=8VtZjZOpIgU&amp;feature=related</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=WCZxTNXWnLc</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=kMhp8Aqjjgs</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=CGRBe44AczY</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=spjkgMpVDWQ</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=vRAFQCOkjgE</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=h6WuCvBqlbs</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=r8bN8QMeXbg</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=2Q8ESzK5pCw</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=NoPlwPUYWaw</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=_7sn1pKVBNo</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=D-7TXP7fVhk</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=-I_VwA4d44g</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=xd49fPultMU</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=kn4n1CXTsQk</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=qSPm5_bOeHI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=C53U3YFBaLY</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=OVpR5ltUodg</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=LAVPXScshwQ</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=JuP_yeI9Fis</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=EYfBZnMve_E</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=IVFJtA0rkU0</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=LezdsDAr0-E</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=wRvMx8uWaX4</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=ccnWQs4N2xg</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=JEh7Vt9sxmc</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=GyRIVbdsi4c</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=2N0iVysrykU</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=qf3mgRUZkAk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jotNbcFelX4&amp;frags=pl%2Cwn</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=HndQZlmJPpc</t>
+  </si>
+  <si>
+    <t>http://www.youtube.com/watch?v=RbBOOmkMLmI</t>
+  </si>
+  <si>
+    <t>http://songsandhymns.org/player/?hymn=we-come-o-christ-to-you</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=v8YOPj5TnUM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rOmipqhQBOM</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wT4n1hGjDDg&amp;list=RDwT4n1hGjDDg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dGG-s1dmkkw</t>
+  </si>
+  <si>
+    <t>Amazing Grace</t>
+  </si>
+  <si>
+    <t>Arise My Soul, Arise</t>
+  </si>
+  <si>
+    <t>Come Thou Almighty King</t>
+  </si>
+  <si>
+    <t>Come Thou Fount Of Every Blessing</t>
+  </si>
+  <si>
+    <t>Come Thou Long Expected Jesus</t>
+  </si>
+  <si>
+    <t>God All Nature Sings Thy Glory</t>
+  </si>
+  <si>
+    <t>Greg Cooper$$$ Nicky Chiswell</t>
+  </si>
+  <si>
+    <t>Passion$$$ Chris Tomlin</t>
+  </si>
+  <si>
+    <t>Bethel$$$ Jeremy Riddle</t>
+  </si>
+  <si>
+    <t>Sovereign Grace$$$ Sczebel &amp; Bischof</t>
+  </si>
+  <si>
+    <t>Kevin Mayhew$$$ Martin E. Leckebusch</t>
+  </si>
+  <si>
+    <t>Eleanor Henrietta Hull$$$ Mary Elizabeth Byrne</t>
+  </si>
+  <si>
+    <t>G.W. Briggs$$$ Beethoven</t>
+  </si>
+  <si>
+    <t>Keith Getty$$$ Stuart Townend</t>
+  </si>
+  <si>
+    <t>John Thomas Grape$$$ Alex Nifong</t>
+  </si>
+  <si>
+    <t>K. Wilkinson$$$ A. C. Gould</t>
+  </si>
+  <si>
+    <t>E. Mote$$$ W. Bradbury</t>
+  </si>
+  <si>
+    <t>Sovereign Grace$$$ Bob Kauflin</t>
+  </si>
+  <si>
+    <t>Augustus M. Toplady$$$ Thomas Hastings</t>
+  </si>
+  <si>
+    <t>Townend$$$ Getty</t>
+  </si>
+  <si>
+    <t>Frances R. Havergal$$$ Henri A. Cesar Malan</t>
+  </si>
+  <si>
+    <t>M D Babcock$$$ F L Sheppard$$$ E S  Barnes</t>
+  </si>
+  <si>
+    <t>F. Crosby$$$ W. Doane</t>
+  </si>
+  <si>
+    <t>Isaac Watts$$$ E. Miller</t>
+  </si>
+  <si>
+    <t>Holy$$$ Holy$$$ Holy!</t>
+  </si>
+  <si>
+    <t>Take My Life$$$ And Let It Be</t>
+  </si>
+  <si>
+    <t>10$$$000 Reasons</t>
+  </si>
+  <si>
+    <t>Chris Tomlin$$$ John Newton$$$ Louie Giglio</t>
+  </si>
+  <si>
+    <t>Rob Smith</t>
+  </si>
+  <si>
+    <t>J Baird$$$ R Baird$$$ R Gunderlock</t>
+  </si>
+  <si>
+    <t>J Myrin$$$ R Morgan$$$ E Lijero$$$ W Bradbury</t>
+  </si>
+  <si>
+    <t>Ken Riley$$$ Brenton Brown</t>
+  </si>
+  <si>
+    <t>Graham Kendrick</t>
+  </si>
+  <si>
+    <t>Jeremy Riddle</t>
+  </si>
+  <si>
+    <t>Tim Hughes</t>
+  </si>
+  <si>
+    <t>Cook$$$ Steve &amp; Vikki</t>
+  </si>
+  <si>
+    <t>Laura Story$$$ Jesse Reeve</t>
+  </si>
+  <si>
+    <t>Brian Eichelberger$$$ Zach Bolen</t>
+  </si>
+  <si>
+    <t>Tim Hughes$$$ Rob Hill</t>
+  </si>
+  <si>
+    <t>Nicky Chiswell</t>
+  </si>
+  <si>
+    <t>Adam Sacks</t>
+  </si>
+  <si>
+    <t>J Riddle</t>
+  </si>
+  <si>
+    <t>Joel Sczebel</t>
+  </si>
+  <si>
+    <t>Powell$$$ Mac and Third Day</t>
+  </si>
+  <si>
+    <t>Fanny J. Crosby$$$ William J. Kirkpatrick</t>
+  </si>
+  <si>
+    <t>Felice de Giardini</t>
+  </si>
+  <si>
+    <t>Robert Robinson$$$ Ashael Nettleton</t>
+  </si>
+  <si>
+    <t>Charles Wesley$$$ Mark E. Hunt</t>
+  </si>
+  <si>
+    <t>Richard Mant$$$ Stuttgart</t>
+  </si>
+  <si>
+    <t>David Clowney$$$ Ludwig van Beethoven</t>
+  </si>
+  <si>
+    <t>Stuart K. Hine</t>
+  </si>
+  <si>
+    <t>John Newton$$$  Alexander R. Reinagle</t>
+  </si>
+  <si>
+    <t>Toulon Traditional</t>
+  </si>
+  <si>
+    <t>Daniel W. Whittle</t>
+  </si>
+  <si>
+    <t>W. Smith</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> R. Pritchard$$$ J. Chapman</t>
+  </si>
+  <si>
+    <t>Fanny Crosby$$$ William H. Doane</t>
+  </si>
+  <si>
+    <t>John Newton$$$ Darmstadt Gesangbuch</t>
+  </si>
+  <si>
+    <t>Frances R. Havergal$$$ Austen McLennan</t>
+  </si>
+  <si>
+    <t>Phillip Bliss</t>
+  </si>
+  <si>
+    <t>Lidie H. Edmunds</t>
+  </si>
+  <si>
+    <t>Ray Palmer</t>
+  </si>
+  <si>
+    <t>William R. Featherstone$$$ Adoniram J. Gordon</t>
+  </si>
+  <si>
+    <t>James Walch</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Charles Wesley$$$ Thomas Jarman</t>
+  </si>
+  <si>
+    <t>H. Hassler$$$ J. S. Bach</t>
+  </si>
+  <si>
+    <t>Robert Grant$$$ Haydn</t>
+  </si>
+  <si>
+    <t>S. Gesangbuch$$$ J. Neander$$$ C. Winkworth$$$ Others</t>
+  </si>
+  <si>
+    <t>Henry F Lyte$$$ John Goss</t>
+  </si>
+  <si>
+    <t>Charles Wesley$$$ John Darwall</t>
+  </si>
+  <si>
+    <t>Timothy Dudley-Smith$$$ Walter Greatorex</t>
+  </si>
+  <si>
+    <t>Samuel J. Stone$$$ Samuel S. Wesley</t>
+  </si>
+  <si>
+    <t>Francis Rous$$$ William Mure$$$ Others</t>
+  </si>
+  <si>
+    <t>Edmond Budry</t>
+  </si>
+  <si>
+    <t>E. Margaret Clarkson</t>
+  </si>
+  <si>
+    <t>Category A&amp;&amp;&amp;Archived&amp;&amp;&amp;Opening Placement</t>
+  </si>
+  <si>
+    <t>Category A&amp;&amp;&amp;Archived&amp;&amp;&amp;Reflective</t>
+  </si>
+  <si>
+    <t>Category A&amp;&amp;&amp;Archived&amp;&amp;&amp;Christmas</t>
+  </si>
+  <si>
+    <t>Category A&amp;&amp;&amp;Archived&amp;&amp;&amp;Reflective&amp;&amp;&amp;End Placement</t>
+  </si>
+  <si>
+    <t>Category A&amp;&amp;&amp;Archived&amp;&amp;&amp;Any Placement</t>
+  </si>
+  <si>
+    <t>Category A&amp;&amp;&amp;Archived&amp;&amp;&amp;Opening Placement&amp;&amp;&amp;Reflective</t>
+  </si>
+  <si>
+    <t>Category A&amp;&amp;&amp;Archived&amp;&amp;&amp;End Placement</t>
+  </si>
+  <si>
+    <t>Category A&amp;&amp;&amp;Archived&amp;&amp;&amp;Opening Placement&amp;&amp;&amp;End Placement</t>
+  </si>
+  <si>
+    <t>Category A&amp;&amp;&amp;Archived&amp;&amp;&amp;Christmas&amp;&amp;&amp;Kids</t>
+  </si>
+  <si>
+    <t>Category B (Hymn)&amp;&amp;&amp;Archived&amp;&amp;&amp;Opening Placement&amp;&amp;&amp;End Placement</t>
+  </si>
+  <si>
+    <t>Category B (Hymn)&amp;&amp;&amp;Archived</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -441,6 +1446,26 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF2C2A29"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color rgb="FF343434"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF343434"/>
+      <name val="Arial"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -450,9 +1475,18 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
       <right/>
       <top/>
       <bottom/>
@@ -463,11 +1497,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -746,46 +1789,47 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H41"/>
+  <dimension ref="A1:H151"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
-      <selection activeCell="D23" sqref="D23"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="2" width="29.1640625" customWidth="1"/>
+    <col min="1" max="1" width="39.5" customWidth="1"/>
+    <col min="2" max="2" width="62.6640625" customWidth="1"/>
     <col min="3" max="3" width="29.6640625" customWidth="1"/>
     <col min="4" max="4" width="25.1640625" customWidth="1"/>
     <col min="5" max="5" width="20.6640625" customWidth="1"/>
     <col min="6" max="6" width="20" customWidth="1"/>
-    <col min="7" max="7" width="17.83203125" customWidth="1"/>
+    <col min="7" max="7" width="21.83203125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
+        <v>59</v>
+      </c>
+      <c r="B1" t="s">
+        <v>60</v>
+      </c>
+      <c r="C1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" t="s">
         <v>62</v>
       </c>
-      <c r="B1" t="s">
+      <c r="E1" t="s">
         <v>63</v>
       </c>
-      <c r="C1" t="s">
+      <c r="F1" t="s">
         <v>64</v>
       </c>
-      <c r="D1" t="s">
+      <c r="G1" t="s">
         <v>65</v>
       </c>
-      <c r="E1" t="s">
-        <v>66</v>
-      </c>
-      <c r="F1" t="s">
-        <v>67</v>
-      </c>
-      <c r="G1" t="s">
-        <v>68</v>
-      </c>
       <c r="H1" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.2">
@@ -793,19 +1837,19 @@
         <v>0</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D2" s="1" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E2" s="2">
         <v>100</v>
       </c>
       <c r="F2" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G2" s="1">
         <v>7073327</v>
@@ -813,20 +1857,20 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E3" s="2"/>
       <c r="F3" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G3" s="2">
         <v>7016412</v>
@@ -834,20 +1878,20 @@
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D4" s="2" t="s">
         <v>4</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>106</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D4" s="2" t="s">
-        <v>3</v>
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G4" s="2">
         <v>7014655</v>
@@ -855,20 +1899,20 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>102</v>
+      </c>
+      <c r="C5" s="2" t="s">
         <v>6</v>
       </c>
-      <c r="B5" s="1" t="s">
-        <v>105</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>5</v>
-      </c>
       <c r="D5" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G5" s="1">
         <v>6186078</v>
@@ -876,20 +1920,20 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E6" s="2"/>
       <c r="F6" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G6" s="2">
         <v>5242683</v>
@@ -897,20 +1941,20 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E7" s="2"/>
       <c r="F7" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G7" s="2">
         <v>7017790</v>
@@ -918,41 +1962,41 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>117</v>
+        <v>383</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G8" s="2"/>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E9" s="2">
         <v>90</v>
       </c>
       <c r="F9" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G9" s="1">
         <v>7101176</v>
@@ -960,39 +2004,39 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E10" s="2"/>
       <c r="F10" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G10" s="2"/>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E11" s="2"/>
       <c r="F11" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G11" s="1">
         <v>7046448</v>
@@ -1000,20 +2044,20 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>118</v>
+        <v>384</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G12" s="2">
         <v>7036288</v>
@@ -1021,47 +2065,47 @@
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G13" s="1">
         <v>7096634</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:8" ht="27" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="2" t="s">
+        <v>114</v>
+      </c>
+      <c r="G14" s="4" t="s">
         <v>121</v>
       </c>
-      <c r="G14" s="2" t="s">
-        <v>24</v>
-      </c>
       <c r="H14" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.2">
@@ -1069,17 +2113,17 @@
         <v>25</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>119</v>
+        <v>385</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G15" s="2">
         <v>7054173</v>
@@ -1090,17 +2134,17 @@
         <v>26</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>120</v>
+        <v>386</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G16" s="2">
         <v>6167705</v>
@@ -1111,19 +2155,19 @@
         <v>27</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E17" s="2">
         <v>115</v>
       </c>
       <c r="F17" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G17" s="2">
         <v>7007948</v>
@@ -1131,22 +2175,22 @@
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="C18" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E18" s="2">
         <v>99</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G18" s="1">
         <v>7047091</v>
@@ -1154,20 +2198,20 @@
     </row>
     <row r="19" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B19" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="C19" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B19" s="1" t="s">
-        <v>91</v>
-      </c>
-      <c r="C19" s="2" t="s">
+      <c r="D19" s="2" t="s">
         <v>31</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>32</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G19" s="2">
         <v>6476063</v>
@@ -1175,20 +2219,20 @@
     </row>
     <row r="20" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="C20" s="2" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="D20" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G20" s="2">
         <v>7000689</v>
@@ -1196,20 +2240,20 @@
     </row>
     <row r="21" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="C21" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D21" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G21" s="1">
         <v>7101180</v>
@@ -1217,20 +2261,20 @@
     </row>
     <row r="22" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>35</v>
+        <v>122</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="C22" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D22" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="2" t="s">
-        <v>126</v>
+        <v>119</v>
       </c>
       <c r="G22" s="2">
         <v>5737284</v>
@@ -1238,20 +2282,20 @@
     </row>
     <row r="23" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D23" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G23" s="1">
         <v>7051511</v>
@@ -1259,20 +2303,20 @@
     </row>
     <row r="24" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D24" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G24" s="1">
         <v>7037787</v>
@@ -1280,20 +2324,20 @@
     </row>
     <row r="25" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D25" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G25" s="1">
         <v>7073332</v>
@@ -1301,20 +2345,20 @@
     </row>
     <row r="26" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>41</v>
+        <v>123</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="D26" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G26" s="1">
         <v>7094920</v>
@@ -1322,20 +2366,20 @@
     </row>
     <row r="27" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D27" s="1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E27" s="2"/>
       <c r="F27" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G27" s="1">
         <v>7073333</v>
@@ -1343,65 +2387,65 @@
     </row>
     <row r="28" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D28" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E28" s="2">
         <v>106</v>
       </c>
       <c r="F28" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G28" s="1">
         <v>6167688</v>
       </c>
       <c r="H28" s="2" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="29" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D29" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E29" s="2"/>
       <c r="F29" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G29" s="2"/>
     </row>
     <row r="30" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D30" s="2" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="E30" s="2"/>
       <c r="F30" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G30" s="1">
         <v>7063694</v>
@@ -1409,20 +2453,20 @@
     </row>
     <row r="31" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>48</v>
+        <v>45</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D31" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E31" s="2"/>
       <c r="F31" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G31" s="2">
         <v>6635756</v>
@@ -1430,20 +2474,20 @@
     </row>
     <row r="32" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A32" s="1" t="s">
-        <v>49</v>
+        <v>46</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="D32" s="2" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="E32" s="2"/>
       <c r="F32" s="2" t="s">
-        <v>124</v>
+        <v>117</v>
       </c>
       <c r="G32" s="2">
         <v>5673991</v>
@@ -1451,20 +2495,20 @@
     </row>
     <row r="33" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A33" s="1" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D33" s="2" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E33" s="2"/>
       <c r="F33" s="2" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="G33" s="2">
         <v>7018338</v>
@@ -1472,20 +2516,20 @@
     </row>
     <row r="34" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A34" s="1" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>76</v>
+        <v>73</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="D34" s="2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E34" s="2"/>
       <c r="F34" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G34" s="1">
         <v>6333821</v>
@@ -1493,20 +2537,20 @@
     </row>
     <row r="35" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A35" s="1" t="s">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>75</v>
+        <v>72</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D35" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E35" s="2"/>
       <c r="F35" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G35" s="1">
         <v>7023460</v>
@@ -1514,20 +2558,20 @@
     </row>
     <row r="36" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A36" s="1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D36" s="2" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="E36" s="2"/>
       <c r="F36" s="2" t="s">
-        <v>127</v>
+        <v>120</v>
       </c>
       <c r="G36" s="2">
         <v>7007945</v>
@@ -1535,22 +2579,22 @@
     </row>
     <row r="37" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A37" s="1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="D37" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E37" s="2">
         <v>72</v>
       </c>
       <c r="F37" s="2" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G37" s="1">
         <v>7068424</v>
@@ -1558,20 +2602,20 @@
     </row>
     <row r="38" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A38" s="1" t="s">
-        <v>57</v>
+        <v>54</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D38" s="1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="E38" s="2"/>
       <c r="F38" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G38" s="1">
         <v>7073328</v>
@@ -1579,22 +2623,22 @@
     </row>
     <row r="39" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A39" s="1" t="s">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D39" s="2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="E39" s="2">
         <v>75</v>
       </c>
       <c r="F39" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G39" s="1">
         <v>7121852</v>
@@ -1602,22 +2646,22 @@
     </row>
     <row r="40" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A40" s="1" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>28</v>
+        <v>1</v>
       </c>
       <c r="D40" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E40" s="2">
         <v>105</v>
       </c>
       <c r="F40" s="2" t="s">
-        <v>121</v>
+        <v>114</v>
       </c>
       <c r="G40" s="1">
         <v>7121853</v>
@@ -1625,26 +2669,2012 @@
     </row>
     <row r="41" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A41" s="1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>69</v>
+        <v>66</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>61</v>
+        <v>58</v>
       </c>
       <c r="D41" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="E41" s="2">
         <v>70</v>
       </c>
       <c r="F41" s="2" t="s">
-        <v>125</v>
+        <v>118</v>
       </c>
       <c r="G41" s="1">
         <v>7125215</v>
       </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A42" s="5" t="s">
+        <v>377</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E42" s="2"/>
+      <c r="F42" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G42" s="2"/>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A43" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="B43" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>125</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="E43" s="2"/>
+      <c r="F43" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G43" s="2"/>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A44" s="1" t="s">
+        <v>127</v>
+      </c>
+      <c r="B44" t="s">
+        <v>180</v>
+      </c>
+      <c r="C44" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E44" s="2"/>
+      <c r="F44" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G44" s="2"/>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A45" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="B45" t="s">
+        <v>181</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>387</v>
+      </c>
+      <c r="D45" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E45" s="2"/>
+      <c r="F45" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G45" s="2"/>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A46" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="B46" t="s">
+        <v>182</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>388</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="E46" s="2"/>
+      <c r="F46" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G46" s="2">
+        <v>30639</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A47" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="B47" t="s">
+        <v>183</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E47" s="2"/>
+      <c r="F47" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G47" s="2">
+        <v>2306412</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A48" s="1" t="s">
+        <v>132</v>
+      </c>
+      <c r="B48" t="s">
+        <v>184</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>172</v>
+      </c>
+      <c r="D48" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E48" s="2"/>
+      <c r="F48" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G48" s="2"/>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A49" s="1" t="s">
+        <v>133</v>
+      </c>
+      <c r="B49" t="s">
+        <v>185</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E49" s="2"/>
+      <c r="F49" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G49" s="1">
+        <v>7036096</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A50" s="1" t="s">
+        <v>134</v>
+      </c>
+      <c r="B50" t="s">
+        <v>186</v>
+      </c>
+      <c r="C50" s="2" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E50" s="2"/>
+      <c r="F50" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G50" s="2"/>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A51" s="1" t="s">
+        <v>136</v>
+      </c>
+      <c r="B51" t="s">
+        <v>187</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E51" s="2"/>
+      <c r="F51" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G51" s="1">
+        <v>7068421</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A52" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="B52" t="s">
+        <v>188</v>
+      </c>
+      <c r="C52" s="2" t="s">
+        <v>44</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E52" s="2"/>
+      <c r="F52" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G52" s="1">
+        <v>7002026</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A53" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="B53" t="s">
+        <v>189</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>389</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E53" s="5"/>
+      <c r="F53" s="5" t="s">
+        <v>219</v>
+      </c>
+      <c r="G53" s="2"/>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A54" s="1" t="s">
+        <v>138</v>
+      </c>
+      <c r="B54" t="s">
+        <v>190</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>173</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E54" s="2">
+        <v>97</v>
+      </c>
+      <c r="F54" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G54" s="2"/>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A55" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B55" t="s">
+        <v>191</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="D55" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E55" s="2"/>
+      <c r="F55" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G55" s="2">
+        <v>526631</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A56" s="1" t="s">
+        <v>401</v>
+      </c>
+      <c r="B56" t="s">
+        <v>192</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>174</v>
+      </c>
+      <c r="D56" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E56" s="2"/>
+      <c r="F56" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G56" s="2">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A57" s="1" t="s">
+        <v>141</v>
+      </c>
+      <c r="B57" t="s">
+        <v>193</v>
+      </c>
+      <c r="C57" s="2" t="s">
+        <v>142</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="E57" s="2"/>
+      <c r="F57" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G57" s="1">
+        <v>1558110</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A58" s="1" t="s">
+        <v>143</v>
+      </c>
+      <c r="B58" t="s">
+        <v>194</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>144</v>
+      </c>
+      <c r="D58" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E58" s="2"/>
+      <c r="F58" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G58" s="2"/>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A59" s="1" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" t="s">
+        <v>195</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E59" s="2"/>
+      <c r="F59" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G59" s="2"/>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A60" s="1" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" t="s">
+        <v>196</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>175</v>
+      </c>
+      <c r="D60" s="5" t="s">
+        <v>148</v>
+      </c>
+      <c r="E60" s="2"/>
+      <c r="F60" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G60" s="2"/>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A61" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="B61" t="s">
+        <v>197</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>150</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E61" s="2"/>
+      <c r="F61" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G61" s="2"/>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A62" s="1" t="s">
+        <v>151</v>
+      </c>
+      <c r="B62" t="s">
+        <v>198</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>176</v>
+      </c>
+      <c r="D62" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E62" s="2"/>
+      <c r="F62" s="8" t="s">
+        <v>219</v>
+      </c>
+      <c r="G62" s="6">
+        <v>2328610</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A63" s="1" t="s">
+        <v>152</v>
+      </c>
+      <c r="B63" t="s">
+        <v>199</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>390</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E63" s="2"/>
+      <c r="F63" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="G63" s="2"/>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A64" s="1" t="s">
+        <v>153</v>
+      </c>
+      <c r="B64" t="s">
+        <v>200</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>177</v>
+      </c>
+      <c r="D64" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E64" s="2">
+        <v>110</v>
+      </c>
+      <c r="F64" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G64" s="2">
+        <v>25376</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A65" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="B65" t="s">
+        <v>201</v>
+      </c>
+      <c r="C65" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="E65" s="2"/>
+      <c r="F65" s="2" t="s">
+        <v>224</v>
+      </c>
+      <c r="G65" s="1">
+        <v>7003218</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A66" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="B66" t="s">
+        <v>202</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>109</v>
+      </c>
+      <c r="E66" s="2"/>
+      <c r="F66" s="9" t="s">
+        <v>219</v>
+      </c>
+      <c r="G66" s="7">
+        <v>4689508</v>
+      </c>
+      <c r="H66" s="2" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A67" s="1" t="s">
+        <v>156</v>
+      </c>
+      <c r="B67" t="s">
+        <v>203</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>157</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E67" s="2"/>
+      <c r="F67" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G67" s="2">
+        <v>7081709</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A68" s="1" t="s">
+        <v>158</v>
+      </c>
+      <c r="B68" t="s">
+        <v>204</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>392</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E68" s="2"/>
+      <c r="F68" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G68" s="2"/>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A69" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="B69" t="s">
+        <v>205</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>393</v>
+      </c>
+      <c r="D69" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E69" s="2"/>
+      <c r="F69" s="2" t="s">
+        <v>225</v>
+      </c>
+      <c r="G69" s="2">
+        <v>25417</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A70" s="1" t="s">
+        <v>160</v>
+      </c>
+      <c r="B70" t="s">
+        <v>206</v>
+      </c>
+      <c r="C70" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E70" s="2"/>
+      <c r="F70" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G70" s="2"/>
+      <c r="H70" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A71" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="B71" t="s">
+        <v>207</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>395</v>
+      </c>
+      <c r="D71" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E71" s="2"/>
+      <c r="F71" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="G71" s="2"/>
+    </row>
+    <row r="72" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A72" s="1" t="s">
+        <v>162</v>
+      </c>
+      <c r="B72" t="s">
+        <v>208</v>
+      </c>
+      <c r="C72" s="3" t="s">
+        <v>396</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="E72" s="2"/>
+      <c r="F72" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G72" s="2">
+        <v>4615235</v>
+      </c>
+    </row>
+    <row r="73" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A73" s="1" t="s">
+        <v>402</v>
+      </c>
+      <c r="B73" t="s">
+        <v>209</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>397</v>
+      </c>
+      <c r="D73" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="E73" s="2"/>
+      <c r="F73" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G73" s="2"/>
+    </row>
+    <row r="74" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A74" s="1" t="s">
+        <v>163</v>
+      </c>
+      <c r="B74" t="s">
+        <v>210</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>390</v>
+      </c>
+      <c r="D74" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="E74" s="2"/>
+      <c r="F74" s="2" t="s">
+        <v>222</v>
+      </c>
+      <c r="G74" s="1">
+        <v>4490766</v>
+      </c>
+    </row>
+    <row r="75" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A75" s="1" t="s">
+        <v>164</v>
+      </c>
+      <c r="B75" t="s">
+        <v>211</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>398</v>
+      </c>
+      <c r="D75" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E75" s="2"/>
+      <c r="F75" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G75" s="2"/>
+    </row>
+    <row r="76" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A76" s="1" t="s">
+        <v>165</v>
+      </c>
+      <c r="B76" t="s">
+        <v>212</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>399</v>
+      </c>
+      <c r="D76" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="E76" s="2">
+        <v>110</v>
+      </c>
+      <c r="F76" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="G76" s="7">
+        <v>23426</v>
+      </c>
+    </row>
+    <row r="77" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A77" s="1" t="s">
+        <v>166</v>
+      </c>
+      <c r="B77" t="s">
+        <v>213</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>178</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="E77" s="2"/>
+      <c r="F77" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G77" s="2"/>
+    </row>
+    <row r="78" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A78" s="1" t="s">
+        <v>167</v>
+      </c>
+      <c r="B78" t="s">
+        <v>214</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>400</v>
+      </c>
+      <c r="D78" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="E78" s="2"/>
+      <c r="F78" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="G78" s="1">
+        <v>721333</v>
+      </c>
+    </row>
+    <row r="79" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A79" s="1" t="s">
+        <v>168</v>
+      </c>
+      <c r="B79" t="s">
+        <v>215</v>
+      </c>
+      <c r="C79" s="2" t="s">
+        <v>21</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="E79" s="2"/>
+      <c r="F79" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="G79" s="1">
+        <v>7096627</v>
+      </c>
+    </row>
+    <row r="80" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A80" s="1" t="s">
+        <v>403</v>
+      </c>
+      <c r="B80" t="s">
+        <v>308</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F80" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G80" s="2">
+        <v>6016351</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A81" s="1" t="s">
+        <v>226</v>
+      </c>
+      <c r="B81" t="s">
+        <v>309</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>404</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G81" s="2"/>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A82" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="B82" t="s">
+        <v>310</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>228</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G82" s="2">
+        <v>3798438</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A83" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="B83" t="s">
+        <v>311</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>405</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="F83" s="2" t="s">
+        <v>454</v>
+      </c>
+      <c r="G83" s="2"/>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A84" s="1" t="s">
+        <v>230</v>
+      </c>
+      <c r="B84" t="s">
+        <v>312</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>406</v>
+      </c>
+      <c r="D84" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G84" s="2"/>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A85" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="B85" t="s">
+        <v>313</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>407</v>
+      </c>
+      <c r="D85" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F85" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G85" s="2"/>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A86" s="1" t="s">
+        <v>232</v>
+      </c>
+      <c r="B86" t="s">
+        <v>314</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>408</v>
+      </c>
+      <c r="D86" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F86" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G86" s="2"/>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A87" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="B87" t="s">
+        <v>315</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>409</v>
+      </c>
+      <c r="D87" s="5" t="s">
+        <v>234</v>
+      </c>
+      <c r="F87" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G87" s="2"/>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A88" s="1" t="s">
+        <v>235</v>
+      </c>
+      <c r="B88" t="s">
+        <v>316</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D88" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="F88" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G88" s="2"/>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A89" s="1" t="s">
+        <v>237</v>
+      </c>
+      <c r="B89" t="s">
+        <v>317</v>
+      </c>
+      <c r="C89" s="2" t="s">
+        <v>410</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F89" s="2" t="s">
+        <v>456</v>
+      </c>
+      <c r="G89" s="7">
+        <v>6460220</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A90" s="1" t="s">
+        <v>238</v>
+      </c>
+      <c r="B90" t="s">
+        <v>318</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>411</v>
+      </c>
+      <c r="D90" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F90" s="2" t="s">
+        <v>457</v>
+      </c>
+      <c r="G90" s="2"/>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A91" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="B91" t="s">
+        <v>319</v>
+      </c>
+      <c r="C91" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G91" s="1">
+        <v>4348399</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A92" s="1" t="s">
+        <v>240</v>
+      </c>
+      <c r="B92" t="s">
+        <v>320</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D92" s="5" t="s">
+        <v>242</v>
+      </c>
+      <c r="F92" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G92" s="2"/>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A93" s="1" t="s">
+        <v>243</v>
+      </c>
+      <c r="B93" t="s">
+        <v>321</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>412</v>
+      </c>
+      <c r="D93" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F93" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G93" s="2"/>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A94" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="B94" t="s">
+        <v>322</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>142</v>
+      </c>
+      <c r="D94" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F94" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G94" s="2"/>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A95" s="1" t="s">
+        <v>245</v>
+      </c>
+      <c r="B95" t="s">
+        <v>323</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>413</v>
+      </c>
+      <c r="D95" s="2" t="s">
+        <v>110</v>
+      </c>
+      <c r="F95" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G95" s="1">
+        <v>4403076</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A96" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="B96" t="s">
+        <v>324</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="D96" s="2" t="s">
+        <v>126</v>
+      </c>
+      <c r="F96" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G96" s="2" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A97" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="B97" t="s">
+        <v>325</v>
+      </c>
+      <c r="C97" s="2" t="s">
+        <v>394</v>
+      </c>
+      <c r="D97" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F97" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G97" s="2">
+        <v>4804046</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A98" s="1" t="s">
+        <v>250</v>
+      </c>
+      <c r="B98" t="s">
+        <v>326</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F98" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G98" s="2">
+        <v>6534390</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A99" s="1" t="s">
+        <v>251</v>
+      </c>
+      <c r="B99" t="s">
+        <v>327</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>415</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F99" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G99" s="2"/>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A100" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="B100" t="s">
+        <v>328</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>416</v>
+      </c>
+      <c r="D100" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" s="2" t="s">
+        <v>460</v>
+      </c>
+      <c r="G100" s="2"/>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A101" s="1" t="s">
+        <v>253</v>
+      </c>
+      <c r="B101" t="s">
+        <v>329</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>417</v>
+      </c>
+      <c r="D101" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F101" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G101" s="2"/>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A102" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="B102" t="s">
+        <v>330</v>
+      </c>
+      <c r="C102" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="D102" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F102" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G102" s="2"/>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A103" s="5" t="s">
+        <v>256</v>
+      </c>
+      <c r="C103" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="D103" s="5" t="s">
+        <v>257</v>
+      </c>
+      <c r="F103" s="2" t="s">
+        <v>453</v>
+      </c>
+      <c r="G103" s="2"/>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A104" s="1" t="s">
+        <v>258</v>
+      </c>
+      <c r="B104" t="s">
+        <v>331</v>
+      </c>
+      <c r="C104" s="5" t="s">
+        <v>418</v>
+      </c>
+      <c r="D104" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G104" s="2"/>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A105" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="B105" t="s">
+        <v>332</v>
+      </c>
+      <c r="C105" s="5" t="s">
+        <v>419</v>
+      </c>
+      <c r="D105" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F105" s="2" t="s">
+        <v>452</v>
+      </c>
+      <c r="G105" s="2">
+        <v>5604537</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A106" s="1" t="s">
+        <v>260</v>
+      </c>
+      <c r="B106" t="s">
+        <v>333</v>
+      </c>
+      <c r="C106" s="5" t="s">
+        <v>261</v>
+      </c>
+      <c r="D106" s="5" t="s">
+        <v>262</v>
+      </c>
+      <c r="F106" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G106" s="2"/>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A107" s="1" t="s">
+        <v>263</v>
+      </c>
+      <c r="B107" t="s">
+        <v>334</v>
+      </c>
+      <c r="C107" s="5" t="s">
+        <v>241</v>
+      </c>
+      <c r="D107" s="5" t="s">
+        <v>264</v>
+      </c>
+      <c r="F107" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="G107" s="2"/>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A108" s="1" t="s">
+        <v>265</v>
+      </c>
+      <c r="B108" t="s">
+        <v>335</v>
+      </c>
+      <c r="C108" s="5" t="s">
+        <v>266</v>
+      </c>
+      <c r="D108" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G108" s="2"/>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A109" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B109" t="s">
+        <v>336</v>
+      </c>
+      <c r="C109" s="5" t="s">
+        <v>268</v>
+      </c>
+      <c r="D109" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F109" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G109" s="2"/>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A110" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B110" t="s">
+        <v>337</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>270</v>
+      </c>
+      <c r="D110" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F110" s="2" t="s">
+        <v>459</v>
+      </c>
+      <c r="G110" s="2"/>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A111" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B111" t="s">
+        <v>338</v>
+      </c>
+      <c r="C111" s="5" t="s">
+        <v>420</v>
+      </c>
+      <c r="D111" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F111" s="2" t="s">
+        <v>455</v>
+      </c>
+      <c r="G111" s="2"/>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A112" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B112" t="s">
+        <v>339</v>
+      </c>
+      <c r="C112" s="5" t="s">
+        <v>273</v>
+      </c>
+      <c r="D112" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F112" s="2"/>
+      <c r="G112" s="2"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A113" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B113" t="s">
+        <v>340</v>
+      </c>
+      <c r="C113" s="5" t="s">
+        <v>421</v>
+      </c>
+      <c r="D113" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F113" s="2" t="s">
+        <v>462</v>
+      </c>
+      <c r="G113" s="2"/>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A114" s="1" t="s">
+        <v>378</v>
+      </c>
+      <c r="B114" t="s">
+        <v>341</v>
+      </c>
+      <c r="C114" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D114" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F114" s="2"/>
+      <c r="G114" s="2"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A115" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B115" t="s">
+        <v>342</v>
+      </c>
+      <c r="C115" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D115" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F115" s="2"/>
+      <c r="G115" s="2"/>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A116" s="1" t="s">
+        <v>379</v>
+      </c>
+      <c r="B116" t="s">
+        <v>343</v>
+      </c>
+      <c r="C116" s="5" t="s">
+        <v>422</v>
+      </c>
+      <c r="D116" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F116" s="2"/>
+      <c r="G116" s="2"/>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A117" s="1" t="s">
+        <v>380</v>
+      </c>
+      <c r="B117" t="s">
+        <v>344</v>
+      </c>
+      <c r="C117" s="5" t="s">
+        <v>423</v>
+      </c>
+      <c r="D117" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F117" s="2"/>
+      <c r="G117" s="2"/>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A118" s="1" t="s">
+        <v>381</v>
+      </c>
+      <c r="B118" t="s">
+        <v>345</v>
+      </c>
+      <c r="C118" s="5" t="s">
+        <v>424</v>
+      </c>
+      <c r="D118" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F118" s="2"/>
+      <c r="G118" s="2"/>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A119" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B119" t="s">
+        <v>346</v>
+      </c>
+      <c r="C119" s="5" t="s">
+        <v>425</v>
+      </c>
+      <c r="D119" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F119" s="2"/>
+      <c r="G119" s="2"/>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A120" s="1" t="s">
+        <v>382</v>
+      </c>
+      <c r="B120" t="s">
+        <v>347</v>
+      </c>
+      <c r="C120" s="5" t="s">
+        <v>426</v>
+      </c>
+      <c r="D120" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F120" s="2"/>
+      <c r="G120" s="2"/>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A121" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="B121" t="s">
+        <v>348</v>
+      </c>
+      <c r="C121" s="5" t="s">
+        <v>427</v>
+      </c>
+      <c r="D121" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F121" s="2" t="s">
+        <v>461</v>
+      </c>
+      <c r="G121" s="2"/>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A122" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="B122" t="s">
+        <v>349</v>
+      </c>
+      <c r="C122" s="5" t="s">
+        <v>428</v>
+      </c>
+      <c r="D122" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F122" s="2"/>
+      <c r="G122" s="2"/>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A123" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="B123" t="s">
+        <v>350</v>
+      </c>
+      <c r="C123" s="5" t="s">
+        <v>429</v>
+      </c>
+      <c r="D123" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F123" s="2"/>
+      <c r="G123" s="2"/>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A124" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="B124" t="s">
+        <v>351</v>
+      </c>
+      <c r="C124" s="5" t="s">
+        <v>430</v>
+      </c>
+      <c r="D124" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F124" s="2"/>
+      <c r="G124" s="2"/>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A125" s="1" t="s">
+        <v>281</v>
+      </c>
+      <c r="B125" t="s">
+        <v>352</v>
+      </c>
+      <c r="C125" s="5" t="s">
+        <v>431</v>
+      </c>
+      <c r="D125" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F125" s="2"/>
+      <c r="G125" s="2"/>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A126" s="1" t="s">
+        <v>282</v>
+      </c>
+      <c r="B126" t="s">
+        <v>353</v>
+      </c>
+      <c r="C126" s="5" t="s">
+        <v>432</v>
+      </c>
+      <c r="D126" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F126" s="2"/>
+      <c r="G126" s="2"/>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A127" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="B127" t="s">
+        <v>354</v>
+      </c>
+      <c r="C127" s="5" t="s">
+        <v>433</v>
+      </c>
+      <c r="D127" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F127" s="2"/>
+      <c r="G127" s="2"/>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A128" s="1" t="s">
+        <v>284</v>
+      </c>
+      <c r="B128" t="s">
+        <v>355</v>
+      </c>
+      <c r="C128" s="5" t="s">
+        <v>434</v>
+      </c>
+      <c r="D128" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F128" s="2"/>
+      <c r="G128" s="2"/>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A129" s="5" t="s">
+        <v>285</v>
+      </c>
+      <c r="C129" s="5" t="s">
+        <v>435</v>
+      </c>
+      <c r="D129" s="5" t="s">
+        <v>286</v>
+      </c>
+      <c r="F129" s="2"/>
+      <c r="G129" s="2"/>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A130" s="1" t="s">
+        <v>287</v>
+      </c>
+      <c r="B130" t="s">
+        <v>356</v>
+      </c>
+      <c r="C130" s="5" t="s">
+        <v>125</v>
+      </c>
+      <c r="D130" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F130" s="2"/>
+      <c r="G130" s="2"/>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A131" s="1" t="s">
+        <v>288</v>
+      </c>
+      <c r="B131" t="s">
+        <v>357</v>
+      </c>
+      <c r="C131" s="5" t="s">
+        <v>436</v>
+      </c>
+      <c r="D131" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F131" s="2"/>
+      <c r="G131" s="2"/>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A132" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="B132" t="s">
+        <v>358</v>
+      </c>
+      <c r="C132" s="5" t="s">
+        <v>437</v>
+      </c>
+      <c r="D132" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F132" s="2"/>
+      <c r="G132" s="2"/>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A133" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="B133" t="s">
+        <v>359</v>
+      </c>
+      <c r="C133" s="5" t="s">
+        <v>438</v>
+      </c>
+      <c r="D133" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F133" s="2"/>
+      <c r="G133" s="2"/>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A134" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="B134" t="s">
+        <v>360</v>
+      </c>
+      <c r="C134" s="5" t="s">
+        <v>439</v>
+      </c>
+      <c r="D134" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F134" s="2"/>
+      <c r="G134" s="10">
+        <v>27817</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A135" s="1" t="s">
+        <v>292</v>
+      </c>
+      <c r="B135" t="s">
+        <v>361</v>
+      </c>
+      <c r="C135" s="5" t="s">
+        <v>440</v>
+      </c>
+      <c r="D135" s="5" t="s">
+        <v>109</v>
+      </c>
+      <c r="F135" s="2"/>
+      <c r="G135" s="2"/>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A136" s="1" t="s">
+        <v>293</v>
+      </c>
+      <c r="B136" t="s">
+        <v>362</v>
+      </c>
+      <c r="C136" s="5" t="s">
+        <v>441</v>
+      </c>
+      <c r="D136" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F136" s="2"/>
+      <c r="G136" s="2"/>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A137" s="1" t="s">
+        <v>294</v>
+      </c>
+      <c r="B137" t="s">
+        <v>363</v>
+      </c>
+      <c r="C137" s="5" t="s">
+        <v>442</v>
+      </c>
+      <c r="D137" s="5" t="s">
+        <v>254</v>
+      </c>
+      <c r="F137" s="2"/>
+      <c r="G137" s="2"/>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A138" s="1" t="s">
+        <v>295</v>
+      </c>
+      <c r="B138" t="s">
+        <v>364</v>
+      </c>
+      <c r="C138" s="5" t="s">
+        <v>443</v>
+      </c>
+      <c r="D138" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F138" s="2"/>
+      <c r="G138" s="2"/>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A139" s="5" t="s">
+        <v>296</v>
+      </c>
+      <c r="C139" s="5" t="s">
+        <v>171</v>
+      </c>
+      <c r="D139" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F139" s="2"/>
+      <c r="G139" s="2"/>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A140" s="1" t="s">
+        <v>297</v>
+      </c>
+      <c r="B140" t="s">
+        <v>365</v>
+      </c>
+      <c r="C140" s="5" t="s">
+        <v>444</v>
+      </c>
+      <c r="D140" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="F140" s="2"/>
+      <c r="G140" s="2"/>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A141" s="1" t="s">
+        <v>298</v>
+      </c>
+      <c r="B141" t="s">
+        <v>366</v>
+      </c>
+      <c r="C141" s="5" t="s">
+        <v>445</v>
+      </c>
+      <c r="D141" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F141" s="2"/>
+      <c r="G141" s="2"/>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A142" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="B142" t="s">
+        <v>367</v>
+      </c>
+      <c r="C142" s="5" t="s">
+        <v>446</v>
+      </c>
+      <c r="D142" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F142" s="2"/>
+      <c r="G142" s="10">
+        <v>36592</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A143" s="1" t="s">
+        <v>300</v>
+      </c>
+      <c r="B143" t="s">
+        <v>368</v>
+      </c>
+      <c r="C143" s="5" t="s">
+        <v>447</v>
+      </c>
+      <c r="D143" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F143" s="2"/>
+      <c r="G143" s="2"/>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A144" s="1" t="s">
+        <v>301</v>
+      </c>
+      <c r="B144" t="s">
+        <v>369</v>
+      </c>
+      <c r="C144" s="5" t="s">
+        <v>448</v>
+      </c>
+      <c r="D144" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F144" s="2"/>
+      <c r="G144" s="2"/>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A145" s="1" t="s">
+        <v>302</v>
+      </c>
+      <c r="B145" t="s">
+        <v>370</v>
+      </c>
+      <c r="C145" s="5" t="s">
+        <v>449</v>
+      </c>
+      <c r="D145" s="5" t="s">
+        <v>126</v>
+      </c>
+      <c r="F145" s="2"/>
+      <c r="G145" s="2"/>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A146" s="1" t="s">
+        <v>303</v>
+      </c>
+      <c r="B146" t="s">
+        <v>371</v>
+      </c>
+      <c r="C146" s="5" t="s">
+        <v>450</v>
+      </c>
+      <c r="D146" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="F146" s="2"/>
+      <c r="G146" s="2"/>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A147" s="1" t="s">
+        <v>304</v>
+      </c>
+      <c r="B147" t="s">
+        <v>372</v>
+      </c>
+      <c r="C147" s="5" t="s">
+        <v>451</v>
+      </c>
+      <c r="D147" s="5" t="s">
+        <v>31</v>
+      </c>
+      <c r="F147" s="2"/>
+      <c r="G147" s="2"/>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A148" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="B148" t="s">
+        <v>373</v>
+      </c>
+      <c r="C148" s="2"/>
+      <c r="D148" s="2"/>
+      <c r="F148" s="2"/>
+      <c r="G148" s="2"/>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A149" s="1" t="s">
+        <v>305</v>
+      </c>
+      <c r="B149" t="s">
+        <v>374</v>
+      </c>
+      <c r="C149" s="2"/>
+      <c r="D149" s="2"/>
+      <c r="F149" s="2"/>
+      <c r="G149" s="2"/>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A150" s="1" t="s">
+        <v>306</v>
+      </c>
+      <c r="B150" t="s">
+        <v>375</v>
+      </c>
+      <c r="C150" s="2"/>
+      <c r="D150" s="2"/>
+      <c r="F150" s="2"/>
+      <c r="G150" s="2"/>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A151" s="1" t="s">
+        <v>307</v>
+      </c>
+      <c r="B151" t="s">
+        <v>376</v>
+      </c>
+      <c r="C151" s="2"/>
+      <c r="D151" s="2"/>
+      <c r="F151" s="2"/>
+      <c r="G151" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1676,14 +4706,14 @@
     <hyperlink ref="A20" r:id="rId26"/>
     <hyperlink ref="A21" r:id="rId27"/>
     <hyperlink ref="G21" r:id="rId28" display="https://songselect.ccli.com/Songs/7101180"/>
-    <hyperlink ref="A22" r:id="rId29"/>
+    <hyperlink ref="A22" r:id="rId29" display="No Other Name (Hodge)"/>
     <hyperlink ref="A23" r:id="rId30"/>
     <hyperlink ref="G23" r:id="rId31" display="https://songselect.ccli.com/Songs/7051511"/>
     <hyperlink ref="A24" r:id="rId32"/>
     <hyperlink ref="G24" r:id="rId33" display="https://songselect.ccli.com/Songs/7037787/o-praise-the-name-anastasis"/>
     <hyperlink ref="A25" r:id="rId34"/>
     <hyperlink ref="G25" r:id="rId35" display="https://songselect.ccli.com/Songs/7073332"/>
-    <hyperlink ref="A26" r:id="rId36"/>
+    <hyperlink ref="A26" r:id="rId36" display="Rescuer (Good news)"/>
     <hyperlink ref="G26" r:id="rId37" display="https://songselect.ccli.com/Songs/7094920/rescuer/viewleadsheet"/>
     <hyperlink ref="A27" r:id="rId38"/>
     <hyperlink ref="D27" r:id="rId39" display="A (no capo)"/>
@@ -1752,6 +4782,124 @@
     <hyperlink ref="B4" r:id="rId102"/>
     <hyperlink ref="B3" r:id="rId103"/>
     <hyperlink ref="B2" r:id="rId104"/>
+    <hyperlink ref="A43" r:id="rId105"/>
+    <hyperlink ref="A44" r:id="rId106"/>
+    <hyperlink ref="A45" r:id="rId107"/>
+    <hyperlink ref="A46" r:id="rId108"/>
+    <hyperlink ref="A47" r:id="rId109"/>
+    <hyperlink ref="A48" r:id="rId110"/>
+    <hyperlink ref="A49" r:id="rId111"/>
+    <hyperlink ref="G49" r:id="rId112" display="https://songselect.ccli.com/Songs/7036096/christ-is-mine-forevermore"/>
+    <hyperlink ref="A50" r:id="rId113"/>
+    <hyperlink ref="A51" r:id="rId114"/>
+    <hyperlink ref="G51" r:id="rId115" display="https://songselect.ccli.com/Songs/7068421/crowns/viewleadsheet"/>
+    <hyperlink ref="A52" r:id="rId116" display="Facing a task unfinished (hymn)"/>
+    <hyperlink ref="G52" r:id="rId117" display="https://songselect.ccli.com/Songs/7002026/facing-a-task-unfinished-we-go-to-all-the-world"/>
+    <hyperlink ref="A53" r:id="rId118"/>
+    <hyperlink ref="A54" r:id="rId119"/>
+    <hyperlink ref="A55" r:id="rId120"/>
+    <hyperlink ref="A56" r:id="rId121" display="Holy, Holy, Holy!"/>
+    <hyperlink ref="A57" r:id="rId122"/>
+    <hyperlink ref="G57" r:id="rId123" display="https://songselect.ccli.com/Songs/1558110/how-deep-the-fathers-love-for-us"/>
+    <hyperlink ref="A58" r:id="rId124"/>
+    <hyperlink ref="A59" r:id="rId125"/>
+    <hyperlink ref="A60" r:id="rId126"/>
+    <hyperlink ref="A61" r:id="rId127"/>
+    <hyperlink ref="A62" r:id="rId128"/>
+    <hyperlink ref="A63" r:id="rId129"/>
+    <hyperlink ref="A64" r:id="rId130"/>
+    <hyperlink ref="A65" r:id="rId131"/>
+    <hyperlink ref="G65" r:id="rId132" display="https://songselect.ccli.com/Songs/7003218"/>
+    <hyperlink ref="A66" r:id="rId133"/>
+    <hyperlink ref="A67" r:id="rId134"/>
+    <hyperlink ref="A68" r:id="rId135"/>
+    <hyperlink ref="A69" r:id="rId136"/>
+    <hyperlink ref="A70" r:id="rId137"/>
+    <hyperlink ref="A71" r:id="rId138"/>
+    <hyperlink ref="A72" r:id="rId139"/>
+    <hyperlink ref="A73" r:id="rId140" display="Take My Life, And Let It Be"/>
+    <hyperlink ref="A74" r:id="rId141"/>
+    <hyperlink ref="G74" r:id="rId142" display="https://songselect.ccli.com/Songs/4490766/the-power-of-the-cross"/>
+    <hyperlink ref="A75" r:id="rId143"/>
+    <hyperlink ref="A76" r:id="rId144"/>
+    <hyperlink ref="A77" r:id="rId145"/>
+    <hyperlink ref="A78" r:id="rId146"/>
+    <hyperlink ref="G78" r:id="rId147" display="https://songselect.ccli.com/Songs/721333/when-i-survey-the-wondrous-cross-rockingham/viewleadsheet"/>
+    <hyperlink ref="A79" r:id="rId148"/>
+    <hyperlink ref="G79" r:id="rId149" display="https://songselect.ccli.com/Songs/7096627/o-lord-my-rock-and-my-redeemer"/>
+    <hyperlink ref="B43" r:id="rId150"/>
+    <hyperlink ref="A80" r:id="rId151" display="10,000 Reasons"/>
+    <hyperlink ref="A81" r:id="rId152"/>
+    <hyperlink ref="A82" r:id="rId153"/>
+    <hyperlink ref="A83" r:id="rId154"/>
+    <hyperlink ref="A84" r:id="rId155"/>
+    <hyperlink ref="A85" r:id="rId156"/>
+    <hyperlink ref="A86" r:id="rId157"/>
+    <hyperlink ref="A87" r:id="rId158"/>
+    <hyperlink ref="A88" r:id="rId159"/>
+    <hyperlink ref="A89" r:id="rId160"/>
+    <hyperlink ref="A90" r:id="rId161"/>
+    <hyperlink ref="A91" r:id="rId162"/>
+    <hyperlink ref="G91" r:id="rId163" display="https://songselect.ccli.com/Songs/4348399/how-great-is-our-god"/>
+    <hyperlink ref="A92" r:id="rId164"/>
+    <hyperlink ref="A93" r:id="rId165"/>
+    <hyperlink ref="A94" r:id="rId166"/>
+    <hyperlink ref="A95" r:id="rId167"/>
+    <hyperlink ref="G95" r:id="rId168" display="https://songselect.ccli.com/Songs/4403076/indescribable"/>
+    <hyperlink ref="A96" r:id="rId169"/>
+    <hyperlink ref="A97" r:id="rId170"/>
+    <hyperlink ref="A98" r:id="rId171"/>
+    <hyperlink ref="A99" r:id="rId172"/>
+    <hyperlink ref="A100" r:id="rId173"/>
+    <hyperlink ref="A101" r:id="rId174"/>
+    <hyperlink ref="A102" r:id="rId175"/>
+    <hyperlink ref="D102" r:id="rId176" display="G (no capo)"/>
+    <hyperlink ref="A104" r:id="rId177"/>
+    <hyperlink ref="A105" r:id="rId178"/>
+    <hyperlink ref="A106" r:id="rId179"/>
+    <hyperlink ref="A107" r:id="rId180"/>
+    <hyperlink ref="A108" r:id="rId181"/>
+    <hyperlink ref="A109" r:id="rId182"/>
+    <hyperlink ref="A110" r:id="rId183"/>
+    <hyperlink ref="A111" r:id="rId184"/>
+    <hyperlink ref="A112" r:id="rId185"/>
+    <hyperlink ref="A113" r:id="rId186"/>
+    <hyperlink ref="A114" r:id="rId187" display="Arise My Soul, Arise (hymn)"/>
+    <hyperlink ref="A115" r:id="rId188"/>
+    <hyperlink ref="A116" r:id="rId189" display="Come, Thou Almighty King"/>
+    <hyperlink ref="A117" r:id="rId190" display="Come, Thou Fount Of Every Blessing"/>
+    <hyperlink ref="A118" r:id="rId191" display="Come, Thou Long Expected Jesus"/>
+    <hyperlink ref="A119" r:id="rId192"/>
+    <hyperlink ref="A120" r:id="rId193" display="God, All Nature Sings Thy Glory"/>
+    <hyperlink ref="A121" r:id="rId194"/>
+    <hyperlink ref="A122" r:id="rId195"/>
+    <hyperlink ref="A123" r:id="rId196"/>
+    <hyperlink ref="A124" r:id="rId197"/>
+    <hyperlink ref="A125" r:id="rId198"/>
+    <hyperlink ref="A126" r:id="rId199"/>
+    <hyperlink ref="A127" r:id="rId200"/>
+    <hyperlink ref="A128" r:id="rId201"/>
+    <hyperlink ref="A130" r:id="rId202"/>
+    <hyperlink ref="A131" r:id="rId203"/>
+    <hyperlink ref="A132" r:id="rId204"/>
+    <hyperlink ref="A133" r:id="rId205"/>
+    <hyperlink ref="A134" r:id="rId206"/>
+    <hyperlink ref="A135" r:id="rId207"/>
+    <hyperlink ref="A136" r:id="rId208"/>
+    <hyperlink ref="A137" r:id="rId209"/>
+    <hyperlink ref="A138" r:id="rId210"/>
+    <hyperlink ref="A140" r:id="rId211"/>
+    <hyperlink ref="A141" r:id="rId212"/>
+    <hyperlink ref="A142" r:id="rId213"/>
+    <hyperlink ref="A143" r:id="rId214"/>
+    <hyperlink ref="A144" r:id="rId215"/>
+    <hyperlink ref="A145" r:id="rId216"/>
+    <hyperlink ref="A146" r:id="rId217"/>
+    <hyperlink ref="A147" r:id="rId218"/>
+    <hyperlink ref="A148" r:id="rId219"/>
+    <hyperlink ref="A149" r:id="rId220"/>
+    <hyperlink ref="A150" r:id="rId221"/>
+    <hyperlink ref="A151" r:id="rId222"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
